--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>Номер строки</t>
   </si>
@@ -197,87 +197,6 @@
   </si>
   <si>
     <t>test9</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
   </si>
 </sst>
 </file>
@@ -609,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -968,345 +887,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
